--- a/responsables.xlsx
+++ b/responsables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cristian.upegui\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B96086-9442-4DD8-B64E-51671CC58EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B391D8-F75F-48F2-8507-E45D7A150980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0623211F-8E4D-435C-8783-02686A5195BF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{0623211F-8E4D-435C-8783-02686A5195BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Responsables" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="153">
   <si>
     <t>Area principal</t>
   </si>
@@ -59,42 +59,24 @@
     <t>Cancillería</t>
   </si>
   <si>
-    <t>sandrab.guarin@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Dirección</t>
   </si>
   <si>
     <t>Posicionamiento Internacional</t>
   </si>
   <si>
-    <t>mariaal.correa@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Oferta Académica Internacional</t>
   </si>
   <si>
-    <t>nataliam.sanchez@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Movilidad Global</t>
   </si>
   <si>
-    <t>juanita.mora@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Dirección De Marketing</t>
   </si>
   <si>
-    <t>juliane.paez@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Admisiones</t>
   </si>
   <si>
-    <t>ivand.vergara@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Gerencia De Marketing</t>
   </si>
   <si>
@@ -113,9 +95,6 @@
     <t>Comunicaciones Y Reputación In</t>
   </si>
   <si>
-    <t>carlos.reyes@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Dirección De Regionalización</t>
   </si>
   <si>
@@ -140,18 +119,12 @@
     <t>Planeación Y Efectividad Insti</t>
   </si>
   <si>
-    <t>michael.cifuentes@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Planeación Y Desempeño Insti</t>
   </si>
   <si>
     <t>HabeasData</t>
   </si>
   <si>
-    <t>jesuse.sanchez@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Gsb</t>
   </si>
   <si>
@@ -164,30 +137,18 @@
     <t>Dirección Jurídica</t>
   </si>
   <si>
-    <t>ximena.betancourt@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Consultorio Jurídico</t>
   </si>
   <si>
-    <t>silvia.puentes@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Registro Y Control Académico</t>
   </si>
   <si>
-    <t>francisco.garcia@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Servicio A La Academia</t>
   </si>
   <si>
     <t>Archivo Histórico</t>
   </si>
   <si>
-    <t>katherine.rodriguez@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Protocolo Y Revista Rosarista</t>
   </si>
   <si>
@@ -212,9 +173,6 @@
     <t>Dirección De Educación Digital</t>
   </si>
   <si>
-    <t>cielo.mancera@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Dirección Académica</t>
   </si>
   <si>
@@ -227,36 +185,21 @@
     <t>Dir Eval Permanencia Éxito Est</t>
   </si>
   <si>
-    <t>luz.diaz@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Evaluación De Éxito Estudiantil</t>
   </si>
   <si>
-    <t>mariad.pulido@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Permanencia Y Éxito Estudiantil</t>
   </si>
   <si>
     <t>Extensión Y Egresados</t>
   </si>
   <si>
-    <t>maria.carreno@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Crai</t>
   </si>
   <si>
-    <t>margarita.lisowska@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Gestión Administrativa</t>
   </si>
   <si>
-    <t>johanna.perez@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Gestión Y Dllo De Colecciones</t>
   </si>
   <si>
@@ -278,9 +221,6 @@
     <t>Editorial</t>
   </si>
   <si>
-    <t>gloria.gomez@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Difusión Y Comercialización</t>
   </si>
   <si>
@@ -290,18 +230,9 @@
     <t>Dec. Medio Universitario</t>
   </si>
   <si>
-    <t>anam.restrepo@urosario.edu.co //gloria.carreno@urosario.edu.co</t>
-  </si>
-  <si>
-    <t>ana.goyes@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Deportes</t>
   </si>
   <si>
-    <t>carlosa.rincon@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Académica</t>
   </si>
   <si>
@@ -311,36 +242,21 @@
     <t>Psicología Y Calidad De Vida</t>
   </si>
   <si>
-    <t>olga.ojeda@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Servicio Médico</t>
   </si>
   <si>
-    <t>esperanza.quinones@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Cultura, Participación Y Liderazgo</t>
   </si>
   <si>
     <t>Filantropia</t>
   </si>
   <si>
-    <t>yessenia.lopez@urosario.edu.co // laura.muriel@urosario.edu.co // angela.gomeza@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Becas</t>
   </si>
   <si>
-    <t>diana.duquino@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Fac Estudios Intles Políticos</t>
   </si>
   <si>
-    <t>katherin.leon@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Decanatura</t>
   </si>
   <si>
@@ -362,9 +278,6 @@
     <t>Escuela De Ciencias Humanas</t>
   </si>
   <si>
-    <t>ricardo.gomez@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Posgrado</t>
   </si>
   <si>
@@ -383,36 +296,21 @@
     <t>English Area</t>
   </si>
   <si>
-    <t>cristianca.cardenas@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Escuela De Administración</t>
   </si>
   <si>
-    <t>sandra.amaya@urosario.edu.co // karenm.romero@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Posgrados</t>
   </si>
   <si>
     <t>Facultad De Ciencias Naturales</t>
   </si>
   <si>
-    <t>juanp.reina@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Facultad Economía</t>
   </si>
   <si>
-    <t>angelica.velandia@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Facultad Jurisprudencia</t>
   </si>
   <si>
-    <t>andrea.leon@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Secretaría Académica Posgrado</t>
   </si>
   <si>
@@ -425,24 +323,15 @@
     <t>Facultad Creación</t>
   </si>
   <si>
-    <t>lizeth.nova@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Misi</t>
   </si>
   <si>
     <t>Esc Ingeniería, Ciencia Y Tecn</t>
   </si>
   <si>
-    <t>edwin.munoz@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Esc Medicina Y Ciencias Salud</t>
   </si>
   <si>
-    <t>sandra.forero@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Relacionamiento</t>
   </si>
   <si>
@@ -458,28 +347,18 @@
     <t>Facultad Emprendimiento</t>
   </si>
   <si>
-    <t>cristian.upegui@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Sindicatura</t>
   </si>
   <si>
     <t>Casa Ur</t>
   </si>
   <si>
-    <t>yesid.garzon@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Servicios 2030</t>
   </si>
   <si>
     <t>Gestión Humana</t>
   </si>
   <si>
-    <t>miguel.montenegro@urosario.edu.co
-andrea.chiquiza@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Contratación Y Nómina</t>
   </si>
   <si>
@@ -489,96 +368,51 @@
     <t>Seguridad Y Salud En El Trabaj</t>
   </si>
   <si>
-    <t>williama.lopez@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Bienestar Y Retención</t>
   </si>
   <si>
-    <t>kelly.guevara@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Administración Y Control</t>
   </si>
   <si>
-    <t>miguel.montenegro@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Tecnología Informática Y Comun</t>
   </si>
   <si>
-    <t>jorge.molina@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Redes Telecomunicaciones Y Seg</t>
   </si>
   <si>
-    <t>jorge.ladino@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Servicios E Infraestructura Tic</t>
   </si>
   <si>
-    <t>jairo.santos@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Sist Información Y Desarrollo</t>
   </si>
   <si>
-    <t>marcela.bogoya@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Arquitectura E Integraciones T</t>
   </si>
   <si>
-    <t>ricardo.rugeles@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Comunicaciones Web</t>
   </si>
   <si>
-    <t>ismael.iriarte@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Educación Continua</t>
   </si>
   <si>
     <t>Educación continua</t>
   </si>
   <si>
-    <t>leonardo.arango@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Cursos Colsubsidio</t>
   </si>
   <si>
-    <t>daniel.vanegas@urosario.edu.co // jennyp.arias@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Devoluciones</t>
   </si>
   <si>
-    <t>diana.clavijo@urosario.edu.co // sandrac.rojas@urosario.edu.co // jennyp.arias@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Contenidos academicos</t>
   </si>
   <si>
     <t xml:space="preserve">Falta Información Participantes </t>
   </si>
   <si>
-    <t>diana.clavijo@urosario.edu.co // sandrac.rojas@urosario.edu.co // henry.zapata@urosario.edu.co // jennyp.arias@urosario.edu.co</t>
-  </si>
-  <si>
-    <t>Alcohosensores --&gt; Henry Zapata</t>
-  </si>
-  <si>
     <t>Horario</t>
   </si>
   <si>
-    <t>jennyp.arias@urosario.edu.co // natalia.reyes@urosario.edu.co // mariac.moncada@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Prestación del servicio "ejecución del curso"</t>
   </si>
   <si>
@@ -588,63 +422,36 @@
     <t>Certificados educación continua</t>
   </si>
   <si>
-    <t>camila.camelo@urosario.edu.co // jennyp.arias@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Pagos, honorarios y contratación</t>
   </si>
   <si>
-    <t>nicoll.cardenas@urosario.edu.co // jennyp.arias@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Dirección Financiera</t>
   </si>
   <si>
-    <t>diana.ordonez@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Planeación Y Evaluación Financ</t>
   </si>
   <si>
     <t>Tesorería</t>
   </si>
   <si>
-    <t xml:space="preserve">	lizalejandra.franco@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Contabilidad E Impuestos</t>
   </si>
   <si>
-    <t xml:space="preserve">	martha.lasso@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Facturación Crédito Y Cartera</t>
   </si>
   <si>
-    <t>liliana.calcetero@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Compras Y Suministros</t>
   </si>
   <si>
-    <t>luis.guzman@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Activos Fijos</t>
   </si>
   <si>
-    <t>carmen.meek@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Dirección De Hábitat</t>
   </si>
   <si>
     <t>Dirección Operación Del Campus</t>
   </si>
   <si>
-    <t>fredy.ulloa@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Logística Y Eventos</t>
   </si>
   <si>
@@ -654,9 +461,6 @@
     <t>Seguridad Y Servicios Generales</t>
   </si>
   <si>
-    <t>liliana.estupinanv@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Coordinación Sede Quinta Mutis</t>
   </si>
   <si>
@@ -672,9 +476,6 @@
     <t>Negocios Institucionales</t>
   </si>
   <si>
-    <t>viviana.abuchaibe@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Sena Pensionado Supernumerario</t>
   </si>
   <si>
@@ -693,13 +494,7 @@
     <t>Auditoría De Sistemas</t>
   </si>
   <si>
-    <t>edgard.supelano@urosario.edu.co</t>
-  </si>
-  <si>
     <t>Auditoría Interna</t>
-  </si>
-  <si>
-    <t>willson.matallana@urosario.edu.co</t>
   </si>
   <si>
     <t>Coordinación de proyectos</t>
@@ -910,7 +705,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -921,18 +728,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1272,7 +1067,7 @@
   <dimension ref="A1:D1560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2:D1560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1311,1846 +1106,1698 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>47</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>61</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C50" s="15"/>
     </row>
     <row r="51" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="C51" s="17"/>
     </row>
     <row r="52" spans="1:3" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>63</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C52" s="7"/>
     </row>
     <row r="53" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C53" s="8"/>
     </row>
     <row r="54" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>66</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C54" s="8"/>
     </row>
     <row r="55" spans="1:3" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>68</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C55" s="8"/>
     </row>
     <row r="56" spans="1:3" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>70</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C56" s="10"/>
     </row>
     <row r="57" spans="1:3" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C57" s="8"/>
     </row>
     <row r="58" spans="1:3" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C58" s="8"/>
     </row>
     <row r="59" spans="1:3" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C59" s="8"/>
     </row>
     <row r="60" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C60" s="8"/>
     </row>
     <row r="61" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C62" s="8"/>
     </row>
     <row r="63" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C63" s="10"/>
     </row>
     <row r="64" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" s="8"/>
     </row>
     <row r="65" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C65" s="8"/>
     </row>
     <row r="66" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C66" s="8"/>
     </row>
     <row r="67" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C67" s="10"/>
     </row>
     <row r="68" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>83</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C68" s="8"/>
     </row>
     <row r="69" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>85</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C69" s="8"/>
     </row>
     <row r="70" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C70" s="8"/>
     </row>
     <row r="71" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C71" s="8"/>
     </row>
     <row r="72" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>89</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C72" s="10"/>
     </row>
     <row r="73" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>91</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C73" s="10"/>
     </row>
     <row r="74" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C74" s="8"/>
     </row>
     <row r="75" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C75" s="8"/>
     </row>
     <row r="76" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C76" s="10"/>
     </row>
     <row r="77" spans="1:3" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>98</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C77" s="15"/>
     </row>
     <row r="78" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" s="21"/>
+        <v>71</v>
+      </c>
+      <c r="C78" s="19"/>
     </row>
     <row r="79" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="C79" s="19"/>
     </row>
     <row r="80" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="C80" s="19"/>
     </row>
     <row r="81" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C81" s="21"/>
+        <v>73</v>
+      </c>
+      <c r="C81" s="19"/>
     </row>
     <row r="82" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C82" s="21"/>
+        <v>74</v>
+      </c>
+      <c r="C82" s="19"/>
     </row>
     <row r="83" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C83" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="C83" s="19"/>
     </row>
     <row r="84" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C84" s="16"/>
+        <v>76</v>
+      </c>
+      <c r="C84" s="18"/>
     </row>
     <row r="85" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>106</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C85" s="15"/>
     </row>
     <row r="86" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C86" s="23"/>
+        <v>71</v>
+      </c>
+      <c r="C86" s="16"/>
     </row>
     <row r="87" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C87" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="C87" s="16"/>
     </row>
     <row r="88" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C88" s="23"/>
+        <v>73</v>
+      </c>
+      <c r="C88" s="16"/>
     </row>
     <row r="89" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C89" s="23"/>
+        <v>78</v>
+      </c>
+      <c r="C89" s="16"/>
     </row>
     <row r="90" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C90" s="23"/>
+        <v>79</v>
+      </c>
+      <c r="C90" s="16"/>
     </row>
     <row r="91" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C91" s="23"/>
+        <v>80</v>
+      </c>
+      <c r="C91" s="16"/>
     </row>
     <row r="92" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C92" s="23"/>
+        <v>81</v>
+      </c>
+      <c r="C92" s="16"/>
     </row>
     <row r="93" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C93" s="22"/>
+        <v>82</v>
+      </c>
+      <c r="C93" s="17"/>
     </row>
     <row r="94" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>113</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C94" s="10"/>
     </row>
     <row r="95" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>115</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C95" s="20"/>
     </row>
     <row r="96" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C96" s="21"/>
+        <v>71</v>
+      </c>
+      <c r="C96" s="19"/>
     </row>
     <row r="97" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="C97" s="19"/>
     </row>
     <row r="98" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C98" s="21"/>
+        <v>74</v>
+      </c>
+      <c r="C98" s="19"/>
     </row>
     <row r="99" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="C99" s="19"/>
     </row>
     <row r="100" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="C100" s="19"/>
     </row>
     <row r="101" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C101" s="21"/>
+        <v>73</v>
+      </c>
+      <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C102" s="21"/>
+        <v>85</v>
+      </c>
+      <c r="C102" s="19"/>
     </row>
     <row r="103" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C103" s="16"/>
+        <v>76</v>
+      </c>
+      <c r="C103" s="18"/>
     </row>
     <row r="104" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>118</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C104" s="15"/>
     </row>
     <row r="105" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C105" s="23"/>
+        <v>71</v>
+      </c>
+      <c r="C105" s="16"/>
     </row>
     <row r="106" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C106" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="C106" s="16"/>
     </row>
     <row r="107" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C107" s="23"/>
+        <v>73</v>
+      </c>
+      <c r="C107" s="16"/>
     </row>
     <row r="108" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C108" s="22"/>
+        <v>75</v>
+      </c>
+      <c r="C108" s="17"/>
     </row>
     <row r="109" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>120</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C109" s="15"/>
     </row>
     <row r="110" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C110" s="21"/>
+        <v>71</v>
+      </c>
+      <c r="C110" s="19"/>
     </row>
     <row r="111" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C111" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="C111" s="19"/>
     </row>
     <row r="112" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C112" s="21"/>
+        <v>73</v>
+      </c>
+      <c r="C112" s="19"/>
     </row>
     <row r="113" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C113" s="21"/>
+        <v>76</v>
+      </c>
+      <c r="C113" s="19"/>
     </row>
     <row r="114" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C114" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="C114" s="19"/>
     </row>
     <row r="115" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C115" s="21"/>
+        <v>74</v>
+      </c>
+      <c r="C115" s="19"/>
     </row>
     <row r="116" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C116" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="C116" s="19"/>
     </row>
     <row r="117" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C117" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="C117" s="18"/>
     </row>
     <row r="118" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>122</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C118" s="15"/>
     </row>
     <row r="119" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C119" s="21"/>
+        <v>71</v>
+      </c>
+      <c r="C119" s="19"/>
     </row>
     <row r="120" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C120" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="C120" s="19"/>
     </row>
     <row r="121" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C121" s="21"/>
+        <v>89</v>
+      </c>
+      <c r="C121" s="19"/>
     </row>
     <row r="122" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C122" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="C122" s="19"/>
     </row>
     <row r="123" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C123" s="21"/>
+        <v>74</v>
+      </c>
+      <c r="C123" s="19"/>
     </row>
     <row r="124" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C124" s="21"/>
+        <v>91</v>
+      </c>
+      <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C125" s="16"/>
+        <v>72</v>
+      </c>
+      <c r="C125" s="18"/>
     </row>
     <row r="126" spans="1:3" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>127</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C126" s="15"/>
     </row>
     <row r="127" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C127" s="21"/>
+        <v>71</v>
+      </c>
+      <c r="C127" s="19"/>
     </row>
     <row r="128" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C128" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="C128" s="19"/>
     </row>
     <row r="129" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C129" s="16"/>
+        <v>93</v>
+      </c>
+      <c r="C129" s="18"/>
     </row>
     <row r="130" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>130</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C130" s="20"/>
     </row>
     <row r="131" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C131" s="21"/>
+        <v>71</v>
+      </c>
+      <c r="C131" s="19"/>
     </row>
     <row r="132" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C132" s="21"/>
+        <v>73</v>
+      </c>
+      <c r="C132" s="19"/>
     </row>
     <row r="133" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C133" s="16"/>
+        <v>39</v>
+      </c>
+      <c r="C133" s="18"/>
     </row>
     <row r="134" spans="1:3" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C134" s="15" t="s">
-        <v>132</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C134" s="15"/>
     </row>
     <row r="135" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C135" s="21"/>
+        <v>71</v>
+      </c>
+      <c r="C135" s="19"/>
     </row>
     <row r="136" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C136" s="21"/>
+        <v>96</v>
+      </c>
+      <c r="C136" s="19"/>
     </row>
     <row r="137" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C137" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="C137" s="19"/>
     </row>
     <row r="138" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C138" s="21"/>
+        <v>98</v>
+      </c>
+      <c r="C138" s="19"/>
     </row>
     <row r="139" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C139" s="16"/>
+        <v>99</v>
+      </c>
+      <c r="C139" s="18"/>
     </row>
     <row r="140" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>138</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C140" s="20"/>
     </row>
     <row r="141" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C141" s="21"/>
+        <v>71</v>
+      </c>
+      <c r="C141" s="19"/>
     </row>
     <row r="142" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C142" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="C142" s="19"/>
     </row>
     <row r="143" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C143" s="21"/>
+        <v>101</v>
+      </c>
+      <c r="C143" s="19"/>
     </row>
     <row r="144" spans="1:3" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>141</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C144" s="15"/>
     </row>
     <row r="145" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C145" s="16"/>
+        <v>103</v>
+      </c>
+      <c r="C145" s="18"/>
     </row>
     <row r="146" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>144</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C146" s="21"/>
     </row>
     <row r="147" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C147" s="18"/>
+        <v>105</v>
+      </c>
+      <c r="C147" s="22"/>
     </row>
     <row r="148" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C148" s="19"/>
+        <v>106</v>
+      </c>
+      <c r="C148" s="23"/>
     </row>
     <row r="149" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>148</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C149" s="8"/>
     </row>
     <row r="150" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>150</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C150" s="8"/>
     </row>
     <row r="151" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>152</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C151" s="8"/>
     </row>
     <row r="152" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C152" s="15" t="s">
-        <v>154</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C152" s="15"/>
     </row>
     <row r="153" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C153" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="C153" s="18"/>
     </row>
     <row r="154" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>156</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C154" s="8"/>
     </row>
     <row r="155" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>158</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C155" s="8"/>
     </row>
     <row r="156" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>160</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C156" s="8"/>
     </row>
     <row r="157" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>162</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C157" s="8"/>
     </row>
     <row r="158" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>164</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C158" s="8"/>
     </row>
     <row r="159" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>167</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C159" s="8"/>
     </row>
     <row r="160" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>169</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C160" s="10"/>
     </row>
     <row r="161" spans="1:4" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>171</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C161" s="8"/>
     </row>
     <row r="162" spans="1:4" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>171</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C162" s="8"/>
     </row>
     <row r="163" spans="1:4" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>175</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C163" s="8"/>
+      <c r="D163" s="11"/>
     </row>
     <row r="164" spans="1:4" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>177</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C164" s="8"/>
     </row>
     <row r="165" spans="1:4" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>177</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C165" s="8"/>
     </row>
     <row r="166" spans="1:4" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>177</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C166" s="8"/>
     </row>
     <row r="167" spans="1:4" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>181</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C167" s="10"/>
     </row>
     <row r="168" spans="1:4" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>183</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C168" s="10"/>
     </row>
     <row r="169" spans="1:4" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>185</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C169" s="15"/>
     </row>
     <row r="170" spans="1:4" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C170" s="16"/>
+        <v>128</v>
+      </c>
+      <c r="C170" s="18"/>
     </row>
     <row r="171" spans="1:4" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>188</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C171" s="8"/>
     </row>
     <row r="172" spans="1:4" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>190</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C172" s="8"/>
     </row>
     <row r="173" spans="1:4" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C173" s="8"/>
     </row>
     <row r="174" spans="1:4" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>194</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C174" s="8"/>
     </row>
     <row r="175" spans="1:4" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>196</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C175" s="8"/>
     </row>
     <row r="176" spans="1:4" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C176" s="20" t="s">
-        <v>199</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C176" s="20"/>
     </row>
     <row r="177" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C177" s="21"/>
+        <v>136</v>
+      </c>
+      <c r="C177" s="19"/>
     </row>
     <row r="178" spans="1:3" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C178" s="16"/>
+        <v>137</v>
+      </c>
+      <c r="C178" s="18"/>
     </row>
     <row r="179" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>203</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C179" s="10"/>
     </row>
     <row r="180" spans="1:3" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C180" s="20" t="s">
-        <v>199</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C180" s="20"/>
     </row>
     <row r="181" spans="1:3" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C181" s="21"/>
+        <v>140</v>
+      </c>
+      <c r="C181" s="19"/>
     </row>
     <row r="182" spans="1:3" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C182" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="C182" s="19"/>
     </row>
     <row r="183" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C183" s="21"/>
+        <v>141</v>
+      </c>
+      <c r="C183" s="19"/>
     </row>
     <row r="184" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C184" s="16"/>
+        <v>142</v>
+      </c>
+      <c r="C184" s="18"/>
     </row>
     <row r="185" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>209</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C185" s="8"/>
     </row>
     <row r="186" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="C186" s="8"/>
     </row>
     <row r="187" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="C187" s="8"/>
     </row>
     <row r="188" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="C188" s="8"/>
     </row>
     <row r="189" spans="1:3" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C189" s="8" t="s">
-        <v>216</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C189" s="8"/>
     </row>
     <row r="190" spans="1:3" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>218</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C190" s="8"/>
     </row>
     <row r="191" spans="1:3" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="12" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="C191" s="8"/>
     </row>
@@ -7256,12 +6903,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C77:C84"/>
-    <mergeCell ref="C85:C93"/>
-    <mergeCell ref="C95:C103"/>
     <mergeCell ref="C180:C184"/>
     <mergeCell ref="C109:C117"/>
     <mergeCell ref="C118:C125"/>
@@ -7274,75 +6915,14 @@
     <mergeCell ref="C152:C153"/>
     <mergeCell ref="C169:C170"/>
     <mergeCell ref="C176:C178"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C77:C84"/>
+    <mergeCell ref="C85:C93"/>
+    <mergeCell ref="C95:C103"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{879078EA-3F63-4155-9467-A50C00F163F1}"/>
-    <hyperlink ref="C34" r:id="rId2" xr:uid="{BDE58475-CFF3-4A10-96C3-E12F1232C211}"/>
-    <hyperlink ref="C73" r:id="rId3" xr:uid="{AE28114D-BFC2-4C90-B766-C0449E572D6F}"/>
-    <hyperlink ref="C69" r:id="rId4" xr:uid="{67961121-5467-4EB2-8A44-06D68C727713}"/>
-    <hyperlink ref="C76" r:id="rId5" xr:uid="{7944F217-6C0F-4985-A504-52BDF551F7D8}"/>
-    <hyperlink ref="C72" r:id="rId6" xr:uid="{CA913510-4EC4-4847-AF92-E60E8C654E85}"/>
-    <hyperlink ref="C54" r:id="rId7" xr:uid="{3A143B82-2AAD-431E-9A96-8773E8C5C1A5}"/>
-    <hyperlink ref="C45" r:id="rId8" xr:uid="{6A8FC8C8-0CB5-40ED-BAF8-45CE0CEB5CDD}"/>
-    <hyperlink ref="C179" r:id="rId9" xr:uid="{6EDC7493-2B14-4896-A97D-026660C2D86C}"/>
-    <hyperlink ref="C32" r:id="rId10" xr:uid="{9CCD5CF5-08E6-4C8B-94D1-A8B3E732FA1D}"/>
-    <hyperlink ref="C173" r:id="rId11" xr:uid="{02A90C32-21C3-4DF8-ACD9-C201BA26596C}"/>
-    <hyperlink ref="C159" r:id="rId12" xr:uid="{59DCB2B1-FFE1-4258-A6D2-0D3297469BD9}"/>
-    <hyperlink ref="C7" r:id="rId13" xr:uid="{335392BF-2B63-4AA8-880A-6E4140910575}"/>
-    <hyperlink ref="C3" r:id="rId14" xr:uid="{944ED039-FB44-48D4-A77A-82BD17A75BC9}"/>
-    <hyperlink ref="C5" r:id="rId15" xr:uid="{FB95730B-1889-4B8A-AFA1-EF6E198FA8BA}"/>
-    <hyperlink ref="C6" r:id="rId16" xr:uid="{E65F4004-C868-4F95-9CF6-2EBA72A7B14C}"/>
-    <hyperlink ref="C4" r:id="rId17" xr:uid="{3A92162C-31E7-4200-AC7A-9910020A8AB1}"/>
-    <hyperlink ref="C94" r:id="rId18" xr:uid="{2F0F65AB-E3C1-42E0-90B0-A7C980979191}"/>
-    <hyperlink ref="C134" r:id="rId19" xr:uid="{E9788B77-3DF4-4C5F-BD6D-1B4F95F7FE98}"/>
-    <hyperlink ref="C77" r:id="rId20" xr:uid="{772619AA-2463-460C-BC9D-26F75F320C99}"/>
-    <hyperlink ref="C126" r:id="rId21" xr:uid="{0ADD2EFE-250E-4A6F-966B-CD598ADC06BE}"/>
-    <hyperlink ref="C109" r:id="rId22" xr:uid="{282C5636-29A1-4A74-997D-854C000BB71C}"/>
-    <hyperlink ref="C118" r:id="rId23" xr:uid="{EB6E7C6C-E301-440C-B037-EA7AAA6A8916}"/>
-    <hyperlink ref="C140" r:id="rId24" xr:uid="{BB23219E-694B-460A-91F4-FDFF3C9ECCB9}"/>
-    <hyperlink ref="C144" r:id="rId25" xr:uid="{D9FBEB41-C9DE-47EE-AF7D-214F059A7749}"/>
-    <hyperlink ref="C185" r:id="rId26" xr:uid="{53E1270E-8551-4515-8E9F-841101A08B08}"/>
-    <hyperlink ref="C35" r:id="rId27" xr:uid="{9EEDE3A7-3168-487E-91FD-9EF417BE8224}"/>
-    <hyperlink ref="C176" r:id="rId28" xr:uid="{76EFC0D3-C3ED-4632-9D8C-DF0FEA3C007E}"/>
-    <hyperlink ref="C180" r:id="rId29" xr:uid="{F96B3484-D324-46BA-8F3E-254D87539D8E}"/>
-    <hyperlink ref="C174" r:id="rId30" xr:uid="{FD390605-5935-4B75-BD92-CEAB3EE63436}"/>
-    <hyperlink ref="C175" r:id="rId31" xr:uid="{67B4709C-72F8-47C7-A948-97A2034809DD}"/>
-    <hyperlink ref="C37" r:id="rId32" xr:uid="{FA84A475-CD3F-4146-B45B-76C1C884F14D}"/>
-    <hyperlink ref="C189" r:id="rId33" xr:uid="{5D12ADD2-CD7D-47DE-BE96-1C15178917F9}"/>
-    <hyperlink ref="C190" r:id="rId34" xr:uid="{CFFAEA66-953C-4669-B0FB-0210C1C8A7C8}"/>
-    <hyperlink ref="C16" r:id="rId35" xr:uid="{BECAECAE-C5B6-44E0-AB7C-205ACFC22F3C}"/>
-    <hyperlink ref="C55" r:id="rId36" xr:uid="{31D8B0AF-3BAA-48EF-85B0-2FF60355D992}"/>
-    <hyperlink ref="C56" r:id="rId37" xr:uid="{80F31DB1-F424-42A5-93E5-ABD0D45661C0}"/>
-    <hyperlink ref="C68" r:id="rId38" xr:uid="{2AD6DE0E-FD7E-44B6-88E1-C655495A2F6F}"/>
-    <hyperlink ref="C53" r:id="rId39" xr:uid="{3218033E-71AF-4CAA-BE24-20F0B3CFE972}"/>
-    <hyperlink ref="C52" r:id="rId40" xr:uid="{405A5278-477D-40C0-8BD0-2F140FB985F9}"/>
-    <hyperlink ref="C50" r:id="rId41" xr:uid="{BF58438E-DA28-45F3-BFDB-4681403BA2D5}"/>
-    <hyperlink ref="C152" r:id="rId42" xr:uid="{9B565AB8-BEDF-46D3-9E95-DEDA71F02589}"/>
-    <hyperlink ref="C154" r:id="rId43" xr:uid="{D7F568BF-CB2A-4A36-ADC3-BF045009BC97}"/>
-    <hyperlink ref="C155" r:id="rId44" xr:uid="{D21CE04B-8D27-48FE-BF8A-6A6AB18D5C24}"/>
-    <hyperlink ref="C156" r:id="rId45" xr:uid="{2922546C-2964-4672-8494-0C8E53C650AF}"/>
-    <hyperlink ref="C157" r:id="rId46" xr:uid="{DCBA9DB8-F123-4B10-AACB-D74D412D3B03}"/>
-    <hyperlink ref="C158" r:id="rId47" xr:uid="{738EA0B1-646F-4132-86B5-039317B33DAF}"/>
-    <hyperlink ref="C149" r:id="rId48" xr:uid="{3FC98F3A-914E-406D-8703-8B0B8BC94E1D}"/>
-    <hyperlink ref="C150" r:id="rId49" xr:uid="{7EF87011-B541-4A41-8F77-0202297F51ED}"/>
-    <hyperlink ref="C63" r:id="rId50" xr:uid="{CEF08E43-6330-4726-89F3-248106F31B0B}"/>
-    <hyperlink ref="C85" r:id="rId51" xr:uid="{C06B74FE-93F0-40E0-ADF5-44118256A0EE}"/>
-    <hyperlink ref="C151" r:id="rId52" xr:uid="{9EB06D50-C9E6-4595-8FEA-5181C6938F97}"/>
-    <hyperlink ref="C104" r:id="rId53" xr:uid="{17B43049-4A21-48DE-915F-BDDA62CE07E0}"/>
-    <hyperlink ref="C130" r:id="rId54" xr:uid="{CA93BA31-24CA-41FA-9917-92DDF5B88B54}"/>
-    <hyperlink ref="C25" r:id="rId55" xr:uid="{4DFF6248-81EE-4609-8DC7-3E6A96AD7D3B}"/>
-    <hyperlink ref="C167" r:id="rId56" display="camila.camelo@urosario.edu.co // " xr:uid="{B4875798-3541-49F9-9D36-F460A115EDC7}"/>
-    <hyperlink ref="C169" r:id="rId57" xr:uid="{5077AB65-A47C-4390-89A2-07CEA94DE7A9}"/>
-    <hyperlink ref="C168" r:id="rId58" display="nicoll.cardenas@urosario.edu.co // " xr:uid="{CA23A401-82D9-4852-8C3D-EB19B995F90E}"/>
-    <hyperlink ref="C8" r:id="rId59" xr:uid="{342694B0-C7A6-487A-ADB0-6FA431281D09}"/>
-    <hyperlink ref="C28" r:id="rId60" xr:uid="{8318979B-98C9-486E-BDFE-C6A04BB5C63C}"/>
-    <hyperlink ref="C67" r:id="rId61" display="anam.restrepo@urosario.edu.co // Gloria Ines Carreño Rodrgiguez" xr:uid="{21DA473D-7FC0-490F-AB7A-1E6D8D9AA5FB}"/>
-    <hyperlink ref="C166" r:id="rId62" display="natalia.reyes@urosario.edu.co / Maria Clara Moncada" xr:uid="{EF6D3F86-568D-45E0-9083-862B0110124C}"/>
-    <hyperlink ref="C160" r:id="rId63" display="daniel.vanegas@urosario.edu.co // " xr:uid="{ED59922F-2E93-4DBC-A1C9-FF5449F82321}"/>
-    <hyperlink ref="C165" r:id="rId64" display="natalia.reyes@urosario.edu.co / Maria Clara Moncada" xr:uid="{66D366A3-A194-49C2-B7BF-059F750D1A8F}"/>
-    <hyperlink ref="C164" r:id="rId65" display="natalia.reyes@urosario.edu.co / Maria Clara Moncada" xr:uid="{5CA64D91-F606-4B82-92FB-9BC6ECF5469A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId66"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>